--- a/4.Networking/1.VirtualNetwork.xlsx
+++ b/4.Networking/1.VirtualNetwork.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="96">
   <si>
     <t>Software based isolated network</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>https://docs.microsoft.com/en-us/azure/vpn-gateway/point-to-site-how-to-vpn-client-install-azure-cert</t>
+  </si>
+  <si>
+    <t>VPN Protocols</t>
+  </si>
+  <si>
+    <t>https://thebestvpn.com/pptp-l2tp-openvpn-sstp-ikev2-protocols/</t>
   </si>
 </sst>
 </file>
@@ -600,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -639,6 +645,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -654,27 +678,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,6 +693,51 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -705,51 +756,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -762,6 +768,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,23 +1250,23 @@
       <c r="U9" s="7"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
       <c r="U10" s="7"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
@@ -1282,33 +1289,33 @@
     </row>
     <row r="12" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="J12" s="5"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="31"/>
+      <c r="M12" s="27"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="P12" s="31"/>
+      <c r="P12" s="27"/>
       <c r="Q12" s="12"/>
-      <c r="R12" s="31" t="s">
+      <c r="R12" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="S12" s="31"/>
+      <c r="S12" s="27"/>
       <c r="T12" s="12"/>
       <c r="U12" s="7"/>
     </row>
     <row r="13" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="33"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="G13" t="s">
@@ -1316,8 +1323,8 @@
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="12"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -1329,19 +1336,19 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
       <c r="N14" s="12"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -1353,13 +1360,13 @@
     </row>
     <row r="15" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="33"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
       <c r="J15" s="5"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="12"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
@@ -1376,8 +1383,8 @@
       <c r="E16" s="7"/>
       <c r="J16" s="5"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="12"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
@@ -1394,8 +1401,8 @@
       <c r="E17" s="10"/>
       <c r="J17" s="5"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="12"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -1408,8 +1415,8 @@
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J18" s="5"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="12"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -1420,13 +1427,13 @@
       <c r="U18" s="7"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="32" t="s">
         <v>25</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="12"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
@@ -1437,19 +1444,19 @@
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C20" s="26"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
       <c r="N20" s="12"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
@@ -1460,11 +1467,11 @@
       <c r="U20" s="7"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C21" s="26"/>
+      <c r="C21" s="32"/>
       <c r="J21" s="5"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
       <c r="N21" s="12"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
@@ -1475,11 +1482,11 @@
       <c r="U21" s="7"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
+      <c r="C22" s="32"/>
       <c r="J22" s="5"/>
       <c r="K22" s="12"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="12"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
@@ -1505,48 +1512,48 @@
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J24" s="5"/>
-      <c r="K24" s="35" t="s">
+      <c r="K24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
       <c r="U24" s="7"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J25" s="5"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
       <c r="U25" s="7"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J26" s="5"/>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
       <c r="U26" s="7"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
@@ -1569,15 +1576,15 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="31" t="s">
+      <c r="O28" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="P28" s="31"/>
+      <c r="P28" s="27"/>
       <c r="Q28" s="12"/>
-      <c r="R28" s="31" t="s">
+      <c r="R28" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="S28" s="31"/>
+      <c r="S28" s="27"/>
       <c r="T28" s="12"/>
       <c r="U28" s="7"/>
     </row>
@@ -1587,11 +1594,11 @@
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
       <c r="Q29" s="12"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
       <c r="T29" s="12"/>
       <c r="U29" s="7"/>
     </row>
@@ -1601,11 +1608,11 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
       <c r="Q30" s="12"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
       <c r="T30" s="12"/>
       <c r="U30" s="7"/>
     </row>
@@ -1615,11 +1622,11 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
       <c r="Q31" s="12"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
       <c r="T31" s="12"/>
       <c r="U31" s="7"/>
     </row>
@@ -1629,11 +1636,11 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
       <c r="Q32" s="12"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
       <c r="T32" s="12"/>
       <c r="U32" s="7"/>
     </row>
@@ -1643,11 +1650,11 @@
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
       <c r="Q33" s="12"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
       <c r="T33" s="12"/>
       <c r="U33" s="7"/>
     </row>
@@ -1657,11 +1664,11 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
       <c r="Q34" s="12"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
       <c r="T34" s="12"/>
       <c r="U34" s="7"/>
     </row>
@@ -1671,11 +1678,11 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
       <c r="Q35" s="12"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
       <c r="T35" s="12"/>
       <c r="U35" s="7"/>
     </row>
@@ -1685,11 +1692,11 @@
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
       <c r="Q36" s="12"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
       <c r="T36" s="12"/>
       <c r="U36" s="7"/>
     </row>
@@ -1699,11 +1706,11 @@
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
       <c r="Q37" s="12"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
       <c r="T37" s="12"/>
       <c r="U37" s="7"/>
     </row>
@@ -1713,11 +1720,11 @@
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
       <c r="Q38" s="12"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
       <c r="T38" s="12"/>
       <c r="U38" s="7"/>
     </row>
@@ -1765,16 +1772,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K24:T25"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="O29:P38"/>
-    <mergeCell ref="R29:S38"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="D20:K20"/>
     <mergeCell ref="B10:E10"/>
@@ -1782,6 +1779,16 @@
     <mergeCell ref="L13:M22"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="O29:P38"/>
+    <mergeCell ref="R29:S38"/>
+    <mergeCell ref="K24:T25"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="D14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1802,22 +1809,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
     </row>
     <row r="4" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
     </row>
     <row r="7" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G7" s="39" t="s">
@@ -1858,17 +1865,17 @@
     </row>
     <row r="10" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G10" s="5"/>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="37"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="35" t="s">
+      <c r="P10" s="26" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="6"/>
@@ -1884,7 +1891,7 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="35"/>
+      <c r="P11" s="26"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="7"/>
       <c r="T11" s="1" t="s">
@@ -2102,17 +2109,17 @@
     </row>
     <row r="26" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G26" s="5"/>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="37"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="35" t="s">
+      <c r="P26" s="26" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="6"/>
@@ -2128,7 +2135,7 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="35"/>
+      <c r="P27" s="26"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="7"/>
     </row>
@@ -2370,35 +2377,35 @@
   </cols>
   <sheetData>
     <row r="9" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
-      <c r="Q9" s="53" t="s">
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="Q9" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="55"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="44"/>
     </row>
     <row r="10" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
@@ -2408,34 +2415,34 @@
     </row>
     <row r="11" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="I11" s="53" t="s">
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="I11" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="55"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
       <c r="M11" s="7"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="53" t="s">
+      <c r="R11" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="55"/>
-      <c r="Z11" s="53" t="s">
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="44"/>
+      <c r="Z11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="55"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="44"/>
       <c r="AD11" s="7"/>
     </row>
     <row r="12" spans="3:30" x14ac:dyDescent="0.25">
@@ -2455,50 +2462,50 @@
     <row r="13" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="55"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="7"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="56" t="s">
+      <c r="J13" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="57"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="7"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="48" t="s">
+      <c r="N13" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="O13" s="49"/>
-      <c r="P13" s="50"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="56"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="56" t="s">
+      <c r="S13" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="57"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="50"/>
       <c r="W13" s="7"/>
       <c r="Y13" s="19" t="s">
         <v>11</v>
       </c>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="53" t="s">
+      <c r="AA13" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AB13" s="55"/>
+      <c r="AB13" s="44"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
     </row>
     <row r="14" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="7"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -2512,10 +2519,10 @@
       <c r="W14" s="7"/>
       <c r="Y14" s="18"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="51" t="s">
+      <c r="AA14" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AB14" s="52"/>
+      <c r="AB14" s="48"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
     </row>
@@ -2528,12 +2535,12 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="58" t="s">
+      <c r="L15" s="51" t="s">
         <v>39</v>
       </c>
       <c r="M15" s="7"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="46" t="s">
+      <c r="R15" s="61" t="s">
         <v>45</v>
       </c>
       <c r="S15" s="5"/>
@@ -2549,20 +2556,20 @@
     <row r="16" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="7"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="52"/>
-      <c r="L16" s="59"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="52"/>
       <c r="M16" s="7"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="47"/>
+      <c r="R16" s="62"/>
       <c r="S16" s="5"/>
       <c r="T16" s="22" t="s">
         <v>38</v>
@@ -2571,10 +2578,10 @@
       <c r="W16" s="7"/>
       <c r="Y16" s="18"/>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="51" t="s">
+      <c r="AA16" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AB16" s="52"/>
+      <c r="AB16" s="48"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
     </row>
@@ -2612,11 +2619,11 @@
       <c r="K18" s="10"/>
       <c r="L18" s="7"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="48" t="s">
+      <c r="N18" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="O18" s="49"/>
-      <c r="P18" s="50"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="56"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="5"/>
       <c r="S18" s="8"/>
@@ -2689,20 +2696,20 @@
       <c r="AD21" s="10"/>
     </row>
     <row r="25" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="J25" s="45" t="s">
+      <c r="J25" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
     </row>
     <row r="26" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="I26" s="42" t="s">
+      <c r="I26" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="44"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="59"/>
     </row>
     <row r="27" spans="3:30" x14ac:dyDescent="0.25">
       <c r="I27" s="5"/>
@@ -2749,13 +2756,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="Q9:AD9"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="R11:W11"/>
@@ -2765,11 +2770,13 @@
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="S13:V13"/>
     <mergeCell ref="N13:P13"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="Q9:AD9"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2779,10 +2786,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I24"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B23" sqref="B23:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3238,7 +3245,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B23" s="67" t="s">
         <v>91</v>
       </c>
       <c r="C23" t="s">
@@ -3246,11 +3253,19 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="67" t="s">
         <v>92</v>
       </c>
       <c r="C24" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3259,5 +3274,6 @@
     <mergeCell ref="B11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/4.Networking/1.VirtualNetwork.xlsx
+++ b/4.Networking/1.VirtualNetwork.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Virtual Network" sheetId="1" r:id="rId1"/>
     <sheet name="Load Balancer" sheetId="2" r:id="rId2"/>
-    <sheet name="VPN Gateway" sheetId="3" r:id="rId3"/>
-    <sheet name="VPN Gateway Types" sheetId="4" r:id="rId4"/>
+    <sheet name="VPN Gateway 1" sheetId="3" r:id="rId3"/>
+    <sheet name="VPN Gateway 2" sheetId="5" r:id="rId4"/>
+    <sheet name="VPN Gateway Types" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="114">
   <si>
     <t>Software based isolated network</t>
   </si>
@@ -326,6 +327,60 @@
   </si>
   <si>
     <t>https://thebestvpn.com/pptp-l2tp-openvpn-sstp-ikev2-protocols/</t>
+  </si>
+  <si>
+    <t>VNetData</t>
+  </si>
+  <si>
+    <t>10.254.0.0/16</t>
+  </si>
+  <si>
+    <t>192.168.0.0/16</t>
+  </si>
+  <si>
+    <t>192.168.1.0/24 - FrontEnd</t>
+  </si>
+  <si>
+    <t>192.168.200.0/26 - Gateway</t>
+  </si>
+  <si>
+    <t>10.254.1.0/24 - Backend</t>
+  </si>
+  <si>
+    <t>1. Create a virtual network</t>
+  </si>
+  <si>
+    <t>2. Add a gateway subnet</t>
+  </si>
+  <si>
+    <t>3. Specify a DNS server (optional)</t>
+  </si>
+  <si>
+    <t>4. Create a virtual network gateway</t>
+  </si>
+  <si>
+    <t>5. Generate certificates</t>
+  </si>
+  <si>
+    <t>6. Add the client address pool</t>
+  </si>
+  <si>
+    <t>7. Configure the tunnel type</t>
+  </si>
+  <si>
+    <t>8. Configure the authentication type</t>
+  </si>
+  <si>
+    <t>9. Upload the root certificate public certificate data</t>
+  </si>
+  <si>
+    <t>10. Install an exported client certificate</t>
+  </si>
+  <si>
+    <t>11. Generate and install the VPN client configuration package</t>
+  </si>
+  <si>
+    <t>12. Connect to Azure</t>
   </si>
 </sst>
 </file>
@@ -606,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -645,42 +700,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,6 +749,39 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -702,60 +791,27 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,7 +824,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1250,23 +1327,23 @@
       <c r="U9" s="7"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
       <c r="U10" s="7"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
@@ -1289,33 +1366,33 @@
     </row>
     <row r="12" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="34" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="J12" s="5"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="27"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="27" t="s">
+      <c r="O12" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="P12" s="27"/>
+      <c r="P12" s="32"/>
       <c r="Q12" s="12"/>
-      <c r="R12" s="27" t="s">
+      <c r="R12" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="S12" s="27"/>
+      <c r="S12" s="32"/>
       <c r="T12" s="12"/>
       <c r="U12" s="7"/>
     </row>
     <row r="13" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="37"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="G13" t="s">
@@ -1323,8 +1400,8 @@
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
       <c r="N13" s="12"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -1336,19 +1413,19 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
       <c r="N14" s="12"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -1360,13 +1437,13 @@
     </row>
     <row r="15" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="37"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
       <c r="J15" s="5"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
       <c r="N15" s="12"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
@@ -1383,8 +1460,8 @@
       <c r="E16" s="7"/>
       <c r="J16" s="5"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
       <c r="N16" s="12"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
@@ -1401,8 +1478,8 @@
       <c r="E17" s="10"/>
       <c r="J17" s="5"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
       <c r="N17" s="12"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -1415,8 +1492,8 @@
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J18" s="5"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
       <c r="N18" s="12"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -1427,13 +1504,13 @@
       <c r="U18" s="7"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
       <c r="N19" s="12"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
@@ -1444,19 +1521,19 @@
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C20" s="32"/>
-      <c r="D20" s="33" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
       <c r="N20" s="12"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
@@ -1467,11 +1544,11 @@
       <c r="U20" s="7"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C21" s="32"/>
+      <c r="C21" s="27"/>
       <c r="J21" s="5"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
       <c r="N21" s="12"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
@@ -1482,11 +1559,11 @@
       <c r="U21" s="7"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C22" s="32"/>
+      <c r="C22" s="27"/>
       <c r="J22" s="5"/>
       <c r="K22" s="12"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
       <c r="N22" s="12"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
@@ -1512,48 +1589,48 @@
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J24" s="5"/>
-      <c r="K24" s="26" t="s">
+      <c r="K24" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
       <c r="U24" s="7"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J25" s="5"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
       <c r="U25" s="7"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J26" s="5"/>
-      <c r="K26" s="28" t="s">
+      <c r="K26" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
       <c r="U26" s="7"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
@@ -1576,15 +1653,15 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="27" t="s">
+      <c r="O28" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="P28" s="27"/>
+      <c r="P28" s="32"/>
       <c r="Q28" s="12"/>
-      <c r="R28" s="27" t="s">
+      <c r="R28" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="S28" s="27"/>
+      <c r="S28" s="32"/>
       <c r="T28" s="12"/>
       <c r="U28" s="7"/>
     </row>
@@ -1594,11 +1671,11 @@
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
       <c r="Q29" s="12"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
       <c r="T29" s="12"/>
       <c r="U29" s="7"/>
     </row>
@@ -1608,11 +1685,11 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
       <c r="Q30" s="12"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
       <c r="T30" s="12"/>
       <c r="U30" s="7"/>
     </row>
@@ -1622,11 +1699,11 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
       <c r="Q31" s="12"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
       <c r="T31" s="12"/>
       <c r="U31" s="7"/>
     </row>
@@ -1636,11 +1713,11 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
       <c r="Q32" s="12"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
       <c r="T32" s="12"/>
       <c r="U32" s="7"/>
     </row>
@@ -1650,11 +1727,11 @@
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
       <c r="Q33" s="12"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
       <c r="T33" s="12"/>
       <c r="U33" s="7"/>
     </row>
@@ -1664,11 +1741,11 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
       <c r="Q34" s="12"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
       <c r="T34" s="12"/>
       <c r="U34" s="7"/>
     </row>
@@ -1678,11 +1755,11 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
       <c r="Q35" s="12"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
       <c r="T35" s="12"/>
       <c r="U35" s="7"/>
     </row>
@@ -1692,11 +1769,11 @@
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
       <c r="Q36" s="12"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
       <c r="T36" s="12"/>
       <c r="U36" s="7"/>
     </row>
@@ -1706,11 +1783,11 @@
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
       <c r="Q37" s="12"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
       <c r="T37" s="12"/>
       <c r="U37" s="7"/>
     </row>
@@ -1720,11 +1797,11 @@
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
       <c r="Q38" s="12"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
       <c r="T38" s="12"/>
       <c r="U38" s="7"/>
     </row>
@@ -1772,6 +1849,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K24:T25"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="O29:P38"/>
+    <mergeCell ref="R29:S38"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="D20:K20"/>
     <mergeCell ref="B10:E10"/>
@@ -1779,16 +1866,6 @@
     <mergeCell ref="L13:M22"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="O29:P38"/>
-    <mergeCell ref="R29:S38"/>
-    <mergeCell ref="K24:T25"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="D14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1799,7 +1876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G3:T40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1809,31 +1886,31 @@
   </cols>
   <sheetData>
     <row r="3" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
     </row>
     <row r="4" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
     </row>
     <row r="7" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
     </row>
     <row r="8" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
@@ -1865,17 +1942,17 @@
     </row>
     <row r="10" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G10" s="5"/>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="26" t="s">
+      <c r="P10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="6"/>
@@ -1891,7 +1968,7 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="26"/>
+      <c r="P11" s="36"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="7"/>
       <c r="T11" s="1" t="s">
@@ -1920,12 +1997,12 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="40" t="s">
+      <c r="K13" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
@@ -1936,10 +2013,10 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
@@ -1976,48 +2053,48 @@
     <row r="17" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G17" s="5"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="41"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="41" t="s">
+      <c r="L17" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="41"/>
+      <c r="M17" s="42"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="41" t="s">
+      <c r="O17" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="P17" s="41"/>
+      <c r="P17" s="42"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="7"/>
     </row>
     <row r="18" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G18" s="5"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G19" s="5"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="7"/>
     </row>
@@ -2038,16 +2115,16 @@
     <row r="21" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G21" s="5"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="7"/>
     </row>
@@ -2109,17 +2186,17 @@
     </row>
     <row r="26" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G26" s="5"/>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="30"/>
+      <c r="I26" s="38"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="26" t="s">
+      <c r="P26" s="36" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="6"/>
@@ -2135,7 +2212,7 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="26"/>
+      <c r="P27" s="36"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="7"/>
     </row>
@@ -2158,12 +2235,12 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="40" t="s">
+      <c r="K29" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
@@ -2174,10 +2251,10 @@
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
@@ -2214,48 +2291,48 @@
     <row r="33" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G33" s="5"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="41" t="s">
+      <c r="I33" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="41"/>
+      <c r="J33" s="42"/>
       <c r="K33" s="11"/>
-      <c r="L33" s="41" t="s">
+      <c r="L33" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="41"/>
+      <c r="M33" s="42"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="41" t="s">
+      <c r="O33" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="41"/>
+      <c r="P33" s="42"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G34" s="5"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
       <c r="K34" s="11"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
       <c r="N34" s="11"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="7"/>
     </row>
     <row r="35" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G35" s="5"/>
       <c r="H35" s="11"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
       <c r="N35" s="11"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="7"/>
     </row>
@@ -2276,16 +2353,16 @@
     <row r="37" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G37" s="5"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="38" t="s">
+      <c r="I37" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="7"/>
     </row>
@@ -2357,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:AD32"/>
+  <dimension ref="C9:AD60"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15:Y16"/>
+    <sheetView topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,35 +2454,35 @@
   </cols>
   <sheetData>
     <row r="9" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="Q9" s="42" t="s">
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
+      <c r="Q9" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="44"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="56"/>
     </row>
     <row r="10" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
@@ -2415,34 +2492,34 @@
     </row>
     <row r="11" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="I11" s="42" t="s">
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
+      <c r="I11" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="44"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="56"/>
       <c r="M11" s="7"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="42" t="s">
+      <c r="R11" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="44"/>
-      <c r="Z11" s="42" t="s">
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="56"/>
+      <c r="Z11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="44"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="56"/>
       <c r="AD11" s="7"/>
     </row>
     <row r="12" spans="3:30" x14ac:dyDescent="0.25">
@@ -2462,50 +2539,50 @@
     <row r="13" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="7"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="7"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="54" t="s">
+      <c r="N13" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="O13" s="55"/>
-      <c r="P13" s="56"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="51"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="49" t="s">
+      <c r="S13" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="50"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="58"/>
       <c r="W13" s="7"/>
       <c r="Y13" s="19" t="s">
         <v>11</v>
       </c>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="42" t="s">
+      <c r="AA13" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="AB13" s="44"/>
+      <c r="AB13" s="56"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
     </row>
     <row r="14" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="46"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="7"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -2519,10 +2596,10 @@
       <c r="W14" s="7"/>
       <c r="Y14" s="18"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="47" t="s">
+      <c r="AA14" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="AB14" s="48"/>
+      <c r="AB14" s="53"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
     </row>
@@ -2535,12 +2612,12 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="51" t="s">
+      <c r="L15" s="59" t="s">
         <v>39</v>
       </c>
       <c r="M15" s="7"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="61" t="s">
+      <c r="R15" s="47" t="s">
         <v>45</v>
       </c>
       <c r="S15" s="5"/>
@@ -2556,20 +2633,20 @@
     <row r="16" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="7"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="47" t="s">
+      <c r="J16" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="60"/>
       <c r="M16" s="7"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="62"/>
+      <c r="R16" s="48"/>
       <c r="S16" s="5"/>
       <c r="T16" s="22" t="s">
         <v>38</v>
@@ -2578,10 +2655,10 @@
       <c r="W16" s="7"/>
       <c r="Y16" s="18"/>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="47" t="s">
+      <c r="AA16" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AB16" s="48"/>
+      <c r="AB16" s="53"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
     </row>
@@ -2619,11 +2696,11 @@
       <c r="K18" s="10"/>
       <c r="L18" s="7"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="54" t="s">
+      <c r="N18" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="O18" s="55"/>
-      <c r="P18" s="56"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="51"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="5"/>
       <c r="S18" s="8"/>
@@ -2696,20 +2773,20 @@
       <c r="AD21" s="10"/>
     </row>
     <row r="25" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="J25" s="60" t="s">
+      <c r="J25" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
     </row>
     <row r="26" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="I26" s="57" t="s">
+      <c r="I26" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
     </row>
     <row r="27" spans="3:30" x14ac:dyDescent="0.25">
       <c r="I27" s="5"/>
@@ -2754,13 +2831,108 @@
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
     </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="75"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="75"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="75"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="75"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="75"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="75"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="75"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="75"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="75"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="75"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="75"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="75" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="Q9:AD9"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="R11:W11"/>
@@ -2770,13 +2942,11 @@
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="S13:V13"/>
     <mergeCell ref="N13:P13"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="Q9:AD9"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="AA16:AB16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2785,6 +2955,645 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E6:Y31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E6" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="70"/>
+    </row>
+    <row r="7" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E8" s="5"/>
+      <c r="F8" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E9" s="5"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="7"/>
+    </row>
+    <row r="10" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E10" s="5"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="7"/>
+    </row>
+    <row r="11" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E11" s="5"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="7"/>
+    </row>
+    <row r="12" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E12" s="5"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="7"/>
+    </row>
+    <row r="13" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E13" s="5"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="7"/>
+    </row>
+    <row r="14" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E14" s="5"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="7"/>
+    </row>
+    <row r="15" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E15" s="5"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="7"/>
+    </row>
+    <row r="16" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E16" s="5"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="7"/>
+    </row>
+    <row r="17" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E17" s="5"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="7"/>
+    </row>
+    <row r="18" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E18" s="5"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="7"/>
+    </row>
+    <row r="19" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E19" s="5"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="7"/>
+    </row>
+    <row r="20" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E20" s="5"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="7"/>
+    </row>
+    <row r="21" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E21" s="5"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="7"/>
+    </row>
+    <row r="22" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E22" s="5"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="7"/>
+    </row>
+    <row r="23" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E23" s="5"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="7"/>
+    </row>
+    <row r="24" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E24" s="5"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="7"/>
+    </row>
+    <row r="25" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E25" s="5"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="7"/>
+    </row>
+    <row r="26" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E26" s="5"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="7"/>
+    </row>
+    <row r="27" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E27" s="5"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="7"/>
+    </row>
+    <row r="28" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E28" s="5"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="7"/>
+    </row>
+    <row r="29" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E29" s="5"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="7"/>
+    </row>
+    <row r="30" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E30" s="5"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="7"/>
+    </row>
+    <row r="31" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H23:K24"/>
+    <mergeCell ref="E6:Y6"/>
+    <mergeCell ref="F8:M8"/>
+    <mergeCell ref="Q8:X8"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="R10:W10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I25"/>
   <sheetViews>
@@ -2805,16 +3614,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
@@ -3025,16 +3834,16 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="67"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
@@ -3245,7 +4054,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="26" t="s">
         <v>91</v>
       </c>
       <c r="C23" t="s">
@@ -3253,7 +4062,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="26" t="s">
         <v>92</v>
       </c>
       <c r="C24" t="s">
@@ -3261,7 +4070,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="26" t="s">
         <v>94</v>
       </c>
       <c r="C25" t="s">
